--- a/combined_steps.xlsx
+++ b/combined_steps.xlsx
@@ -453,10 +453,10 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.848871313668982</v>
+        <v>2.040143545706019</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>1.39499315119213</v>
+        <v>1.513841781284722</v>
       </c>
     </row>
     <row r="3">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.6991685841550926</v>
+        <v>0.6991418177893518</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0.5206252814004629</v>
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>3.333474969016204</v>
+        <v>3.395038610243056</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>4.240467925497685</v>
+        <v>8.272577085706018</v>
       </c>
     </row>
   </sheetData>
